--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hgf-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hgf-Sdc1.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.01134666666666667</v>
+        <v>0.1929763333333333</v>
       </c>
       <c r="H2">
-        <v>0.03404</v>
+        <v>0.578929</v>
       </c>
       <c r="I2">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="J2">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N2">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O2">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P2">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q2">
-        <v>0.01563429589777778</v>
+        <v>0.2721971706696666</v>
       </c>
       <c r="R2">
-        <v>0.14070866308</v>
+        <v>2.449774536027</v>
       </c>
       <c r="S2">
-        <v>8.356931991387852E-06</v>
+        <v>0.0001455868551832207</v>
       </c>
       <c r="T2">
-        <v>8.356931991387852E-06</v>
+        <v>0.0001455868551832207</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.01134666666666667</v>
+        <v>0.1929763333333333</v>
       </c>
       <c r="H3">
-        <v>0.03404</v>
+        <v>0.578929</v>
       </c>
       <c r="I3">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="J3">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>36.503158</v>
       </c>
       <c r="O3">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P3">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q3">
-        <v>0.1380630553688889</v>
+        <v>2.348081861975778</v>
       </c>
       <c r="R3">
-        <v>1.24256749832</v>
+        <v>21.132736757782</v>
       </c>
       <c r="S3">
-        <v>7.379824277248175E-05</v>
+        <v>0.001255890548593091</v>
       </c>
       <c r="T3">
-        <v>7.379824277248175E-05</v>
+        <v>0.001255890548593091</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.01134666666666667</v>
+        <v>0.1929763333333333</v>
       </c>
       <c r="H4">
-        <v>0.03404</v>
+        <v>0.578929</v>
       </c>
       <c r="I4">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="J4">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N4">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O4">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P4">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q4">
-        <v>0.02781905005777778</v>
+        <v>0.8308574804270001</v>
       </c>
       <c r="R4">
-        <v>0.25037145052</v>
+        <v>7.477717323843001</v>
       </c>
       <c r="S4">
-        <v>1.486999548415274E-05</v>
+        <v>0.0004443908339797493</v>
       </c>
       <c r="T4">
-        <v>1.486999548415274E-05</v>
+        <v>0.0004443908339797492</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.01134666666666667</v>
+        <v>0.1929763333333333</v>
       </c>
       <c r="H5">
-        <v>0.03404</v>
+        <v>0.578929</v>
       </c>
       <c r="I5">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="J5">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N5">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O5">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P5">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q5">
-        <v>0.1127824399733333</v>
+        <v>1.216665993772667</v>
       </c>
       <c r="R5">
-        <v>1.01504195976</v>
+        <v>10.949993943954</v>
       </c>
       <c r="S5">
-        <v>6.028510569599086E-05</v>
+        <v>0.0006507436333961489</v>
       </c>
       <c r="T5">
-        <v>6.028510569599086E-05</v>
+        <v>0.0006507436333961487</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.01134666666666667</v>
+        <v>0.1929763333333333</v>
       </c>
       <c r="H6">
-        <v>0.03404</v>
+        <v>0.578929</v>
       </c>
       <c r="I6">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="J6">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N6">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O6">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P6">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q6">
-        <v>0.009251444151111111</v>
+        <v>0.09899756657988888</v>
       </c>
       <c r="R6">
-        <v>0.08326299736000001</v>
+        <v>0.890978099219</v>
       </c>
       <c r="S6">
-        <v>4.945134088446393E-06</v>
+        <v>5.294964805732154E-05</v>
       </c>
       <c r="T6">
-        <v>4.945134088446393E-06</v>
+        <v>5.294964805732154E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.01134666666666667</v>
+        <v>0.1929763333333333</v>
       </c>
       <c r="H7">
-        <v>0.03404</v>
+        <v>0.578929</v>
       </c>
       <c r="I7">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="J7">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N7">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O7">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P7">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q7">
-        <v>0.01027200117333333</v>
+        <v>0.3508620431896666</v>
       </c>
       <c r="R7">
-        <v>0.09244801056</v>
+        <v>3.157758388707</v>
       </c>
       <c r="S7">
-        <v>5.490647981992226E-06</v>
+        <v>0.0001876613976018646</v>
       </c>
       <c r="T7">
-        <v>5.490647981992226E-06</v>
+        <v>0.0001876613976018646</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>15.758311</v>
       </c>
       <c r="I8">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="J8">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N8">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O8">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P8">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q8">
-        <v>7.237664424888554</v>
+        <v>7.409142863343666</v>
       </c>
       <c r="R8">
-        <v>65.138979823997</v>
+        <v>66.682285770093</v>
       </c>
       <c r="S8">
-        <v>0.00386871719524498</v>
+        <v>0.003962839901765422</v>
       </c>
       <c r="T8">
-        <v>0.00386871719524498</v>
+        <v>0.003962839901765421</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>15.758311</v>
       </c>
       <c r="I9">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="J9">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>36.503158</v>
       </c>
       <c r="O9">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P9">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q9">
         <v>63.91423513845977</v>
@@ -1013,10 +1013,10 @@
         <v>575.228116246138</v>
       </c>
       <c r="S9">
-        <v>0.03416379732262837</v>
+        <v>0.03418504487888935</v>
       </c>
       <c r="T9">
-        <v>0.03416379732262837</v>
+        <v>0.03418504487888935</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>15.758311</v>
       </c>
       <c r="I10">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="J10">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N10">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O10">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P10">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q10">
-        <v>12.87841488058256</v>
+        <v>22.615744889693</v>
       </c>
       <c r="R10">
-        <v>115.905733925243</v>
+        <v>203.541704007237</v>
       </c>
       <c r="S10">
-        <v>0.006883842932076217</v>
+        <v>0.01209621381447856</v>
       </c>
       <c r="T10">
-        <v>0.006883842932076216</v>
+        <v>0.01209621381447855</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>15.758311</v>
       </c>
       <c r="I11">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="J11">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N11">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O11">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P11">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q11">
-        <v>52.21095077669266</v>
+        <v>33.11736173692066</v>
       </c>
       <c r="R11">
-        <v>469.898556990234</v>
+        <v>298.056255632286</v>
       </c>
       <c r="S11">
-        <v>0.02790809178100163</v>
+        <v>0.01771308840345966</v>
       </c>
       <c r="T11">
-        <v>0.02790809178100163</v>
+        <v>0.01771308840345966</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>15.758311</v>
       </c>
       <c r="I12">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="J12">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N12">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O12">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P12">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q12">
-        <v>4.282818276508222</v>
+        <v>2.694690441157889</v>
       </c>
       <c r="R12">
-        <v>38.545364488574</v>
+        <v>24.252213970421</v>
       </c>
       <c r="S12">
-        <v>0.002289276172222085</v>
+        <v>0.001441276946616629</v>
       </c>
       <c r="T12">
-        <v>0.002289276172222084</v>
+        <v>0.001441276946616629</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>15.758311</v>
       </c>
       <c r="I13">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="J13">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N13">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O13">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P13">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q13">
-        <v>4.755269949522667</v>
+        <v>9.550382162023666</v>
       </c>
       <c r="R13">
-        <v>42.797429545704</v>
+        <v>85.953439458213</v>
       </c>
       <c r="S13">
-        <v>0.002541813704223146</v>
+        <v>0.005108099034777732</v>
       </c>
       <c r="T13">
-        <v>0.002541813704223146</v>
+        <v>0.005108099034777732</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>20.094113</v>
+        <v>15.82150366666667</v>
       </c>
       <c r="H14">
-        <v>60.28233899999999</v>
+        <v>47.464511</v>
       </c>
       <c r="I14">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="J14">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N14">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O14">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P14">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q14">
-        <v>27.68718934595033</v>
+        <v>22.31656317341033</v>
       </c>
       <c r="R14">
-        <v>249.184704113553</v>
+        <v>200.849068560693</v>
       </c>
       <c r="S14">
-        <v>0.01479951255301961</v>
+        <v>0.01193619405712857</v>
       </c>
       <c r="T14">
-        <v>0.01479951255301961</v>
+        <v>0.01193619405712857</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>20.094113</v>
+        <v>15.82150366666667</v>
       </c>
       <c r="H15">
-        <v>60.28233899999999</v>
+        <v>47.464511</v>
       </c>
       <c r="I15">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="J15">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>36.503158</v>
       </c>
       <c r="O15">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P15">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q15">
-        <v>244.4995272362846</v>
+        <v>192.5116160473042</v>
       </c>
       <c r="R15">
-        <v>2200.495745126562</v>
+        <v>1732.604544425738</v>
       </c>
       <c r="S15">
-        <v>0.1306912658171282</v>
+        <v>0.1029663926984013</v>
       </c>
       <c r="T15">
-        <v>0.1306912658171282</v>
+        <v>0.1029663926984013</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>20.094113</v>
+        <v>15.82150366666667</v>
       </c>
       <c r="H16">
-        <v>60.28233899999999</v>
+        <v>47.464511</v>
       </c>
       <c r="I16">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="J16">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N16">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O16">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P16">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q16">
-        <v>49.26549372035633</v>
+        <v>68.11931000029301</v>
       </c>
       <c r="R16">
-        <v>443.3894434832069</v>
+        <v>613.0737900026371</v>
       </c>
       <c r="S16">
-        <v>0.02633366946839496</v>
+        <v>0.03643416313180197</v>
       </c>
       <c r="T16">
-        <v>0.02633366946839496</v>
+        <v>0.03643416313180196</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.094113</v>
+        <v>15.82150366666667</v>
       </c>
       <c r="H17">
-        <v>60.28233899999999</v>
+        <v>47.464511</v>
       </c>
       <c r="I17">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="J17">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N17">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O17">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P17">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q17">
-        <v>199.729414797874</v>
+        <v>99.75049867038733</v>
       </c>
       <c r="R17">
-        <v>1797.564733180866</v>
+        <v>897.754488033486</v>
       </c>
       <c r="S17">
-        <v>0.1067604928970785</v>
+        <v>0.05335235986711924</v>
       </c>
       <c r="T17">
-        <v>0.1067604928970785</v>
+        <v>0.05335235986711923</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>20.094113</v>
+        <v>15.82150366666667</v>
       </c>
       <c r="H18">
-        <v>60.28233899999999</v>
+        <v>47.464511</v>
       </c>
       <c r="I18">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="J18">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N18">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O18">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P18">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q18">
-        <v>16.38362786594733</v>
+        <v>8.11648939318011</v>
       </c>
       <c r="R18">
-        <v>147.452650793526</v>
+        <v>73.048404538621</v>
       </c>
       <c r="S18">
-        <v>0.008757469139840818</v>
+        <v>0.004341169906262887</v>
       </c>
       <c r="T18">
-        <v>0.008757469139840816</v>
+        <v>0.004341169906262886</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>20.094113</v>
+        <v>15.82150366666667</v>
       </c>
       <c r="H19">
-        <v>60.28233899999999</v>
+        <v>47.464511</v>
       </c>
       <c r="I19">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="J19">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N19">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O19">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P19">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q19">
-        <v>18.190959369544</v>
+        <v>28.76604092809033</v>
       </c>
       <c r="R19">
-        <v>163.718634325896</v>
+        <v>258.894368352813</v>
       </c>
       <c r="S19">
-        <v>0.009723534165103445</v>
+        <v>0.01538574932461334</v>
       </c>
       <c r="T19">
-        <v>0.009723534165103445</v>
+        <v>0.01538574932461334</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.196276666666667</v>
+        <v>0.1345413333333333</v>
       </c>
       <c r="H20">
-        <v>3.588830000000001</v>
+        <v>0.403624</v>
       </c>
       <c r="I20">
-        <v>0.01768543141551132</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="J20">
-        <v>0.01768543141551131</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N20">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O20">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P20">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q20">
-        <v>1.648320509601111</v>
+        <v>0.1897733760346666</v>
       </c>
       <c r="R20">
-        <v>14.83488458641</v>
+        <v>1.707960384312</v>
       </c>
       <c r="S20">
-        <v>0.0008810695722283336</v>
+        <v>0.0001015018229117427</v>
       </c>
       <c r="T20">
-        <v>0.0008810695722283335</v>
+        <v>0.0001015018229117426</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.196276666666667</v>
+        <v>0.1345413333333333</v>
       </c>
       <c r="H21">
-        <v>3.588830000000001</v>
+        <v>0.403624</v>
       </c>
       <c r="I21">
-        <v>0.01768543141551132</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="J21">
-        <v>0.01768543141551131</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>36.503158</v>
       </c>
       <c r="O21">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P21">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q21">
-        <v>14.55595872501556</v>
+        <v>1.637061182732444</v>
       </c>
       <c r="R21">
-        <v>131.00362852514</v>
+        <v>14.733550644592</v>
       </c>
       <c r="S21">
-        <v>0.007780533126003694</v>
+        <v>0.0008755953956104073</v>
       </c>
       <c r="T21">
-        <v>0.007780533126003694</v>
+        <v>0.0008755953956104073</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.196276666666667</v>
+        <v>0.1345413333333333</v>
       </c>
       <c r="H22">
-        <v>3.588830000000001</v>
+        <v>0.403624</v>
       </c>
       <c r="I22">
-        <v>0.01768543141551132</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="J22">
-        <v>0.01768543141551131</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N22">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O22">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P22">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q22">
-        <v>2.932956563421112</v>
+        <v>0.579266230712</v>
       </c>
       <c r="R22">
-        <v>26.39660907079</v>
+        <v>5.213396076408</v>
       </c>
       <c r="S22">
-        <v>0.001567740478654286</v>
+        <v>0.0003098252220466452</v>
       </c>
       <c r="T22">
-        <v>0.001567740478654285</v>
+        <v>0.0003098252220466452</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.196276666666667</v>
+        <v>0.1345413333333333</v>
       </c>
       <c r="H23">
-        <v>3.588830000000001</v>
+        <v>0.403624</v>
       </c>
       <c r="I23">
-        <v>0.01768543141551132</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="J23">
-        <v>0.01768543141551131</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N23">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O23">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P23">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q23">
-        <v>11.89062879111334</v>
+        <v>0.8482483950026666</v>
       </c>
       <c r="R23">
-        <v>107.01565912002</v>
+        <v>7.634235555024</v>
       </c>
       <c r="S23">
-        <v>0.006355845942272119</v>
+        <v>0.000453692505101467</v>
       </c>
       <c r="T23">
-        <v>0.006355845942272118</v>
+        <v>0.0004536925051014669</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.196276666666667</v>
+        <v>0.1345413333333333</v>
       </c>
       <c r="H24">
-        <v>3.588830000000001</v>
+        <v>0.403624</v>
       </c>
       <c r="I24">
-        <v>0.01768543141551132</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="J24">
-        <v>0.01768543141551131</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N24">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O24">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P24">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q24">
-        <v>0.9753778000244446</v>
+        <v>0.0690201973182222</v>
       </c>
       <c r="R24">
-        <v>8.778400200220002</v>
+        <v>0.6211817758639999</v>
       </c>
       <c r="S24">
-        <v>0.0005213644409705956</v>
+        <v>3.691600998997864E-05</v>
       </c>
       <c r="T24">
-        <v>0.0005213644409705954</v>
+        <v>3.691600998997864E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.196276666666667</v>
+        <v>0.1345413333333333</v>
       </c>
       <c r="H25">
-        <v>3.588830000000001</v>
+        <v>0.403624</v>
       </c>
       <c r="I25">
-        <v>0.01768543141551132</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="J25">
-        <v>0.01768543141551131</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N25">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O25">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P25">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q25">
-        <v>1.082974911013334</v>
+        <v>0.2446178051546666</v>
       </c>
       <c r="R25">
-        <v>9.746774199120001</v>
+        <v>2.201560246392</v>
       </c>
       <c r="S25">
-        <v>0.0005788778553822905</v>
+        <v>0.0001308358087877011</v>
       </c>
       <c r="T25">
-        <v>0.0005788778553822903</v>
+        <v>0.0001308358087877011</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>15.43587433333334</v>
+        <v>20.04269466666667</v>
       </c>
       <c r="H26">
-        <v>46.30762300000001</v>
+        <v>60.128084</v>
       </c>
       <c r="I26">
-        <v>0.2281998006542117</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="J26">
-        <v>0.2281998006542116</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N26">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O26">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P26">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q26">
-        <v>21.26871563762456</v>
+        <v>28.27064172392133</v>
       </c>
       <c r="R26">
-        <v>191.418440738621</v>
+        <v>254.435775515292</v>
       </c>
       <c r="S26">
-        <v>0.01136867379829107</v>
+        <v>0.0151207810590807</v>
       </c>
       <c r="T26">
-        <v>0.01136867379829107</v>
+        <v>0.0151207810590807</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>15.43587433333334</v>
+        <v>20.04269466666667</v>
       </c>
       <c r="H27">
-        <v>46.30762300000001</v>
+        <v>60.128084</v>
       </c>
       <c r="I27">
-        <v>0.2281998006542117</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="J27">
-        <v>0.2281998006542116</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>36.503158</v>
       </c>
       <c r="O27">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P27">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q27">
-        <v>187.8193865526038</v>
+        <v>243.8738833876968</v>
       </c>
       <c r="R27">
-        <v>1690.374478973434</v>
+        <v>2194.864950489272</v>
       </c>
       <c r="S27">
-        <v>0.1003942774491939</v>
+        <v>0.1304379162222162</v>
       </c>
       <c r="T27">
-        <v>0.1003942774491939</v>
+        <v>0.1304379162222162</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>15.43587433333334</v>
+        <v>20.04269466666667</v>
       </c>
       <c r="H28">
-        <v>46.30762300000001</v>
+        <v>60.128084</v>
       </c>
       <c r="I28">
-        <v>0.2281998006542117</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="J28">
-        <v>0.2281998006542116</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N28">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O28">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P28">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q28">
-        <v>37.84471452096656</v>
+        <v>86.293601417692</v>
       </c>
       <c r="R28">
-        <v>340.602430688699</v>
+        <v>776.642412759228</v>
       </c>
       <c r="S28">
-        <v>0.02022897017896145</v>
+        <v>0.04615482968440761</v>
       </c>
       <c r="T28">
-        <v>0.02022897017896144</v>
+        <v>0.0461548296844076</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>15.43587433333334</v>
+        <v>20.04269466666667</v>
       </c>
       <c r="H29">
-        <v>46.30762300000001</v>
+        <v>60.128084</v>
       </c>
       <c r="I29">
-        <v>0.2281998006542117</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="J29">
-        <v>0.2281998006542116</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N29">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O29">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P29">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q29">
-        <v>153.4279292392847</v>
+        <v>126.3640188581093</v>
       </c>
       <c r="R29">
-        <v>1380.851363153562</v>
+        <v>1137.276169722984</v>
       </c>
       <c r="S29">
-        <v>0.08201116178275845</v>
+        <v>0.06758681608851662</v>
       </c>
       <c r="T29">
-        <v>0.08201116178275844</v>
+        <v>0.06758681608851662</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>15.43587433333334</v>
+        <v>20.04269466666667</v>
       </c>
       <c r="H30">
-        <v>46.30762300000001</v>
+        <v>60.128084</v>
       </c>
       <c r="I30">
-        <v>0.2281998006542117</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="J30">
-        <v>0.2281998006542116</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N30">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O30">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P30">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q30">
-        <v>12.58555781302023</v>
+        <v>10.28197585388044</v>
       </c>
       <c r="R30">
-        <v>113.270020317182</v>
+        <v>92.537782684924</v>
       </c>
       <c r="S30">
-        <v>0.006727303321158175</v>
+        <v>0.005499397829718438</v>
       </c>
       <c r="T30">
-        <v>0.006727303321158173</v>
+        <v>0.005499397829718438</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>15.43587433333334</v>
+        <v>20.04269466666667</v>
       </c>
       <c r="H31">
-        <v>46.30762300000001</v>
+        <v>60.128084</v>
       </c>
       <c r="I31">
-        <v>0.2281998006542117</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="J31">
-        <v>0.2281998006542116</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N31">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O31">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P31">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q31">
-        <v>13.97391180347467</v>
+        <v>36.44084577784133</v>
       </c>
       <c r="R31">
-        <v>125.765206231272</v>
+        <v>327.967612000572</v>
       </c>
       <c r="S31">
-        <v>0.007469414123848615</v>
+        <v>0.01949068068547665</v>
       </c>
       <c r="T31">
-        <v>0.007469414123848614</v>
+        <v>0.01949068068547665</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>25.65154633333333</v>
+        <v>29.05628733333333</v>
       </c>
       <c r="H32">
-        <v>76.954639</v>
+        <v>87.168862</v>
       </c>
       <c r="I32">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="J32">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N32">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O32">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P32">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q32">
-        <v>35.34464150507255</v>
+        <v>40.98450346570066</v>
       </c>
       <c r="R32">
-        <v>318.101773545653</v>
+        <v>368.860531191306</v>
       </c>
       <c r="S32">
-        <v>0.01889261705478271</v>
+        <v>0.02192089269751584</v>
       </c>
       <c r="T32">
-        <v>0.01889261705478271</v>
+        <v>0.02192089269751584</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>25.65154633333333</v>
+        <v>29.05628733333333</v>
       </c>
       <c r="H33">
-        <v>76.954639</v>
+        <v>87.168862</v>
       </c>
       <c r="I33">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="J33">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>36.503158</v>
       </c>
       <c r="O33">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P33">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q33">
-        <v>312.1208162499958</v>
+        <v>353.5487491406884</v>
       </c>
       <c r="R33">
-        <v>2809.087346249962</v>
+        <v>3181.938742266196</v>
       </c>
       <c r="S33">
-        <v>0.1668365784779874</v>
+        <v>0.1890984039794438</v>
       </c>
       <c r="T33">
-        <v>0.1668365784779874</v>
+        <v>0.1890984039794438</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>25.65154633333333</v>
+        <v>29.05628733333333</v>
       </c>
       <c r="H34">
-        <v>76.954639</v>
+        <v>87.168862</v>
       </c>
       <c r="I34">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="J34">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N34">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O34">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P34">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q34">
-        <v>62.89086235367856</v>
+        <v>125.101525494506</v>
       </c>
       <c r="R34">
-        <v>566.017761183107</v>
+        <v>1125.913729450554</v>
       </c>
       <c r="S34">
-        <v>0.03361677833180388</v>
+        <v>0.06691156131623338</v>
       </c>
       <c r="T34">
-        <v>0.03361677833180388</v>
+        <v>0.06691156131623337</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>25.65154633333333</v>
+        <v>29.05628733333333</v>
       </c>
       <c r="H35">
-        <v>76.954639</v>
+        <v>87.168862</v>
       </c>
       <c r="I35">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="J35">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N35">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O35">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P35">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q35">
-        <v>254.9686237863407</v>
+        <v>183.1923951145347</v>
       </c>
       <c r="R35">
-        <v>2294.717614077066</v>
+        <v>1648.731556030812</v>
       </c>
       <c r="S35">
-        <v>0.1362872663311346</v>
+        <v>0.09798193211410637</v>
       </c>
       <c r="T35">
-        <v>0.1362872663311346</v>
+        <v>0.09798193211410636</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>25.65154633333333</v>
+        <v>29.05628733333333</v>
       </c>
       <c r="H36">
-        <v>76.954639</v>
+        <v>87.168862</v>
       </c>
       <c r="I36">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="J36">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N36">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O36">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P36">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q36">
-        <v>20.91485149463622</v>
+        <v>14.90598194172022</v>
       </c>
       <c r="R36">
-        <v>188.233663451726</v>
+        <v>134.153837475482</v>
       </c>
       <c r="S36">
-        <v>0.01117952434145083</v>
+        <v>0.007972584832435806</v>
       </c>
       <c r="T36">
-        <v>0.01117952434145083</v>
+        <v>0.007972584832435806</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>25.65154633333333</v>
+        <v>29.05628733333333</v>
       </c>
       <c r="H37">
-        <v>76.954639</v>
+        <v>87.168862</v>
       </c>
       <c r="I37">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="J37">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N37">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O37">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P37">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q37">
-        <v>23.22203707701066</v>
+        <v>52.82900843426066</v>
       </c>
       <c r="R37">
-        <v>208.998333693096</v>
+        <v>475.461075908346</v>
       </c>
       <c r="S37">
-        <v>0.01241277418714131</v>
+        <v>0.02825602184427464</v>
       </c>
       <c r="T37">
-        <v>0.01241277418714131</v>
+        <v>0.02825602184427464</v>
       </c>
     </row>
   </sheetData>
